--- a/fse-2017-data/download/projects.xlsx
+++ b/fse-2017-data/download/projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Sites/diegocedrim.github.io/fse-2017-data/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>alibaba/dubbo</t>
   </si>
@@ -248,10 +248,10 @@
     <t>xerces</t>
   </si>
   <si>
-    <t>We ommited the URL of two projects due anonimity reasons. Since the projects are originaly stored on SVN repositories, we converted to git and saved in our personal accounts. Thus, we cannot provide the URL during revision.</t>
-  </si>
-  <si>
-    <t>read the observation at the end of the table</t>
+    <t>https://github.com/diegocedrim/argouml</t>
+  </si>
+  <si>
+    <t>https://github.com/diegocedrim/xerces</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -307,12 +307,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +588,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,8 +683,8 @@
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>74</v>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="3">
         <v>177467</v>
@@ -708,7 +703,7 @@
       <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="3">
@@ -1085,9 +1080,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1098,9 +1091,6 @@
   <sortState ref="A2:C24">
     <sortCondition ref="A2:A24"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A28:F28"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>